--- a/results/convfinqa/retrieval_results.xlsx
+++ b/results/convfinqa/retrieval_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,122 @@
         <v>0.3778392449281915</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>query.json</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8334170173115661</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2880711411224213</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.798951048951049</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3258340071962985</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.187004662004662</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04929694503166016</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9348776223776224</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2465940180384396</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>rephrase_level_1.json</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rephrase_level_3.json</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>rephrase_level_2.json</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
